--- a/Logbook-SimonAdler.xlsx
+++ b/Logbook-SimonAdler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951ac44c9ca3de21/Documents/Project-En-Ontwerp-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3B3C2F-0D18-4815-B664-3BB7C2B0A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8B3B3C2F-0D18-4815-B664-3BB7C2B0A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0D0A04-61CC-47EC-BFC4-B29AE26AC246}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{CF525389-2DC2-46B0-B35B-253EF60A17CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Datum/uur</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>test code +  review assistent</t>
+  </si>
+  <si>
+    <t>review assistent</t>
+  </si>
+  <si>
+    <t>test code</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -500,6 +506,18 @@
       <c r="A4" s="1">
         <v>45215</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">

--- a/Logbook-SimonAdler.xlsx
+++ b/Logbook-SimonAdler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951ac44c9ca3de21/Documents/Project-En-Ontwerp-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8B3B3C2F-0D18-4815-B664-3BB7C2B0A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0D0A04-61CC-47EC-BFC4-B29AE26AC246}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{8B3B3C2F-0D18-4815-B664-3BB7C2B0A109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B9120CA-1C50-4354-AD7A-A3D8045F95F4}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{CF525389-2DC2-46B0-B35B-253EF60A17CF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Datum/uur</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>test code</t>
+  </si>
+  <si>
+    <t>coding game end</t>
+  </si>
+  <si>
+    <t>rapport writting</t>
   </si>
 </sst>
 </file>
@@ -128,6 +134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7668ED82-D2D8-40FA-A2FE-16C4D533F14D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -523,6 +533,29 @@
       <c r="A5" s="1">
         <v>45218</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
